--- a/Code/Results/Cases/Case_0_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1364105090726468</v>
+        <v>0.04624057031806217</v>
       </c>
       <c r="D2">
-        <v>0.09964029639419891</v>
+        <v>0.02994977361687745</v>
       </c>
       <c r="E2">
-        <v>0.01147022273002296</v>
+        <v>0.05195727515087745</v>
       </c>
       <c r="F2">
-        <v>7.012992006941005</v>
+        <v>5.919682466129302</v>
       </c>
       <c r="G2">
-        <v>0.0008291791579149283</v>
+        <v>0.002638653089036547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1341822832601665</v>
+        <v>0.1746110942662824</v>
       </c>
       <c r="K2">
-        <v>3.681693663977285</v>
+        <v>2.745765109674494</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6252160121263088</v>
+        <v>0.6251240003196585</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.116931507612108</v>
+        <v>0.04119625488371526</v>
       </c>
       <c r="D3">
-        <v>0.08597185037501731</v>
+        <v>0.02633550175126942</v>
       </c>
       <c r="E3">
-        <v>0.0117031739859379</v>
+        <v>0.05239751334947673</v>
       </c>
       <c r="F3">
-        <v>6.312975828069199</v>
+        <v>5.749805215673234</v>
       </c>
       <c r="G3">
-        <v>0.0008417155991776711</v>
+        <v>0.002645830604285175</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1245381138709973</v>
+        <v>0.1726037611906648</v>
       </c>
       <c r="K3">
-        <v>3.185534992373107</v>
+        <v>2.658023149878829</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5461647070978941</v>
+        <v>0.6138062162812545</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1052615940067341</v>
+        <v>0.03812136832809188</v>
       </c>
       <c r="D4">
-        <v>0.07781806591525964</v>
+        <v>0.02411591075728836</v>
       </c>
       <c r="E4">
-        <v>0.01186322248108329</v>
+        <v>0.05268704183666761</v>
       </c>
       <c r="F4">
-        <v>5.896773254392315</v>
+        <v>5.64728751289104</v>
       </c>
       <c r="G4">
-        <v>0.0008495562525136287</v>
+        <v>0.002650461556865611</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.118835462443073</v>
+        <v>0.1714165689759994</v>
       </c>
       <c r="K4">
-        <v>2.890641980391592</v>
+        <v>2.606673675935326</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.499314130788548</v>
+        <v>0.6074014241804875</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1005675503615748</v>
+        <v>0.03687375741574783</v>
       </c>
       <c r="D5">
-        <v>0.07454519556280559</v>
+        <v>0.02321105574269211</v>
       </c>
       <c r="E5">
-        <v>0.01193270553000803</v>
+        <v>0.05280987615164756</v>
       </c>
       <c r="F5">
-        <v>5.730120851709103</v>
+        <v>5.605951557023104</v>
       </c>
       <c r="G5">
-        <v>0.0008527915611800881</v>
+        <v>0.002652405242147841</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1165598705294144</v>
+        <v>0.1709440589397389</v>
       </c>
       <c r="K5">
-        <v>2.772591265478098</v>
+        <v>2.586379571485281</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4805932235859345</v>
+        <v>0.6049278463457384</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09979151447105039</v>
+        <v>0.03666691510946407</v>
       </c>
       <c r="D6">
-        <v>0.07400447412853595</v>
+        <v>0.02306077662207429</v>
       </c>
       <c r="E6">
-        <v>0.01194450013348014</v>
+        <v>0.05283056604085568</v>
       </c>
       <c r="F6">
-        <v>5.70261401138788</v>
+        <v>5.599114127006828</v>
       </c>
       <c r="G6">
-        <v>0.0008533313217099029</v>
+        <v>0.002652731410805358</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1161847429854745</v>
+        <v>0.1708662769792397</v>
       </c>
       <c r="K6">
-        <v>2.753108161168399</v>
+        <v>2.58304777300998</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4775056060081084</v>
+        <v>0.60452533740132</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1051980535114296</v>
+        <v>0.03810452087037675</v>
       </c>
       <c r="D7">
-        <v>0.07777373754198891</v>
+        <v>0.02410370932729222</v>
       </c>
       <c r="E7">
-        <v>0.011864142316377</v>
+        <v>0.05268867876790306</v>
       </c>
       <c r="F7">
-        <v>5.894514344758875</v>
+        <v>5.646728268175252</v>
       </c>
       <c r="G7">
-        <v>0.0008495997170551691</v>
+        <v>0.002650487540910519</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1188045859018132</v>
+        <v>0.1714101510173407</v>
       </c>
       <c r="K7">
-        <v>2.889041730533734</v>
+        <v>2.606397431368009</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.499060217359812</v>
+        <v>0.6073675128474179</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1296265805301289</v>
+        <v>0.04449653744960358</v>
       </c>
       <c r="D8">
-        <v>0.09487137728709172</v>
+        <v>0.02870350698267998</v>
       </c>
       <c r="E8">
-        <v>0.01154700149586674</v>
+        <v>0.0521050896436952</v>
       </c>
       <c r="F8">
-        <v>6.768501958122016</v>
+        <v>5.860732472743308</v>
       </c>
       <c r="G8">
-        <v>0.0008334746544796199</v>
+        <v>0.002641081555984703</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1308072194297623</v>
+        <v>0.1739094894639521</v>
       </c>
       <c r="K8">
-        <v>3.50838208850206</v>
+        <v>2.714985516521892</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5975748422603147</v>
+        <v>0.621108355301871</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1804327308092866</v>
+        <v>0.0572177485782106</v>
       </c>
       <c r="D9">
-        <v>0.1308250232192449</v>
+        <v>0.03773204097630867</v>
       </c>
       <c r="E9">
-        <v>0.01106108506591674</v>
+        <v>0.05111247177805556</v>
       </c>
       <c r="F9">
-        <v>8.61485895357373</v>
+        <v>6.294994184937138</v>
       </c>
       <c r="G9">
-        <v>0.0008027729541864604</v>
+        <v>0.002624402903308271</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1564339654058955</v>
+        <v>0.1791758314071288</v>
       </c>
       <c r="K9">
-        <v>4.817698985790457</v>
+        <v>2.948138547011467</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8069457955253867</v>
+        <v>0.6523977063102535</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2205220055089683</v>
+        <v>0.0666914859539105</v>
       </c>
       <c r="D10">
-        <v>0.1596013870311737</v>
+        <v>0.04438701796549083</v>
       </c>
       <c r="E10">
-        <v>0.0107887653923191</v>
+        <v>0.05047477685466983</v>
       </c>
       <c r="F10">
-        <v>10.09268794976114</v>
+        <v>6.623559711992868</v>
       </c>
       <c r="G10">
-        <v>0.0007804181530881898</v>
+        <v>0.002613211465963321</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1771194401440539</v>
+        <v>0.1832758577535571</v>
       </c>
       <c r="K10">
-        <v>5.866554882018931</v>
+        <v>3.132040005815838</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9753040229073804</v>
+        <v>0.6780726349695385</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.239639082281272</v>
+        <v>0.07103209858728121</v>
       </c>
       <c r="D11">
-        <v>0.1734550390981155</v>
+        <v>0.04742290040714181</v>
       </c>
       <c r="E11">
-        <v>0.01068379607572023</v>
+        <v>0.05020435750609664</v>
       </c>
       <c r="F11">
-        <v>10.80274865253546</v>
+        <v>6.775234691356161</v>
       </c>
       <c r="G11">
-        <v>0.0007701913644920116</v>
+        <v>0.002608347756007652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1870971830657169</v>
+        <v>0.1851930314209795</v>
       </c>
       <c r="K11">
-        <v>6.370855779492672</v>
+        <v>3.218503171247562</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.056375536911553</v>
+        <v>0.6903452258564258</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2470341373034302</v>
+        <v>0.07268046512244553</v>
       </c>
       <c r="D12">
-        <v>0.1788371463349563</v>
+        <v>0.0485740216352184</v>
       </c>
       <c r="E12">
-        <v>0.01064682208763212</v>
+        <v>0.05010476964102839</v>
       </c>
       <c r="F12">
-        <v>11.07826183579658</v>
+        <v>6.832998295473089</v>
       </c>
       <c r="G12">
-        <v>0.000766299920951008</v>
+        <v>0.002606538444273962</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1909743319057071</v>
+        <v>0.185926643378501</v>
       </c>
       <c r="K12">
-        <v>6.566604035028035</v>
+        <v>3.251652946993545</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.087859984658721</v>
+        <v>0.6950784935652834</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2454340160577146</v>
+        <v>0.07232524863941592</v>
       </c>
       <c r="D13">
-        <v>0.1776714827723822</v>
+        <v>0.04832603600850405</v>
       </c>
       <c r="E13">
-        <v>0.01065466063208653</v>
+        <v>0.05012609274434965</v>
       </c>
       <c r="F13">
-        <v>11.018608560389</v>
+        <v>6.820543140314157</v>
       </c>
       <c r="G13">
-        <v>0.0007671390398811472</v>
+        <v>0.002606926671184656</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1901346124344343</v>
+        <v>0.1857683058448387</v>
       </c>
       <c r="K13">
-        <v>6.524217554651386</v>
+        <v>3.244495326086394</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.081041806551553</v>
+        <v>0.6940552685987029</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2402441650300489</v>
+        <v>0.07116761581814046</v>
       </c>
       <c r="D14">
-        <v>0.1738949310709899</v>
+        <v>0.04751757221850994</v>
       </c>
       <c r="E14">
-        <v>0.01068069821298678</v>
+        <v>0.05019610803759544</v>
       </c>
       <c r="F14">
-        <v>10.82527469115803</v>
+        <v>6.779980315034379</v>
       </c>
       <c r="G14">
-        <v>0.0007698716574971585</v>
+        <v>0.002608198253365055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1874140673237505</v>
+        <v>0.1852532326215552</v>
       </c>
       <c r="K14">
-        <v>6.386858613133825</v>
+        <v>3.221222218224511</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.058949152407031</v>
+        <v>0.690732909237326</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2370864988077983</v>
+        <v>0.07045914711753198</v>
       </c>
       <c r="D15">
-        <v>0.171600276088796</v>
+        <v>0.04702256819587092</v>
       </c>
       <c r="E15">
-        <v>0.01069701031388792</v>
+        <v>0.05023936047003641</v>
       </c>
       <c r="F15">
-        <v>10.70775510520218</v>
+        <v>6.755177372187006</v>
       </c>
       <c r="G15">
-        <v>0.0007715426691525994</v>
+        <v>0.002608981355954538</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1857610908619804</v>
+        <v>0.1849387317865094</v>
       </c>
       <c r="K15">
-        <v>6.303374007317984</v>
+        <v>3.207020048033883</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.045523575179473</v>
+        <v>0.6887090748680578</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2192927381008616</v>
+        <v>0.06640845831644526</v>
       </c>
       <c r="D16">
-        <v>0.1587134980003242</v>
+        <v>0.04418881048266599</v>
       </c>
       <c r="E16">
-        <v>0.01079601047390089</v>
+        <v>0.05049284397711684</v>
       </c>
       <c r="F16">
-        <v>10.04714081784019</v>
+        <v>6.613692690115897</v>
       </c>
       <c r="G16">
-        <v>0.0007810844907482274</v>
+        <v>0.002613533876519437</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1764801837400398</v>
+        <v>0.1831516248309057</v>
       </c>
       <c r="K16">
-        <v>5.834214874238683</v>
+        <v>3.126446279941888</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9701073177102515</v>
+        <v>0.6772825778381986</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.208621294317723</v>
+        <v>0.06393157606544264</v>
       </c>
       <c r="D17">
-        <v>0.1510203747562429</v>
+        <v>0.04245276444557078</v>
       </c>
       <c r="E17">
-        <v>0.01086162394349799</v>
+        <v>0.05065337572334094</v>
       </c>
       <c r="F17">
-        <v>9.652329719713663</v>
+        <v>6.527469191166006</v>
       </c>
       <c r="G17">
-        <v>0.0007869165411097291</v>
+        <v>0.002616384768297445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1709432173010157</v>
+        <v>0.1820687194114612</v>
       </c>
       <c r="K17">
-        <v>5.553925545820448</v>
+        <v>3.077738675300509</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9250808934095787</v>
+        <v>0.6704251047390599</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2025641558639109</v>
+        <v>0.06250983986187464</v>
       </c>
       <c r="D18">
-        <v>0.1466654668631122</v>
+        <v>0.04145502004102752</v>
       </c>
       <c r="E18">
-        <v>0.01090113902651968</v>
+        <v>0.05074756175648165</v>
       </c>
       <c r="F18">
-        <v>9.428717527432866</v>
+        <v>6.478083019822748</v>
       </c>
       <c r="G18">
-        <v>0.0007902663128667094</v>
+        <v>0.002618045936662187</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.167810739498286</v>
+        <v>0.1814507519292761</v>
       </c>
       <c r="K18">
-        <v>5.395206223914272</v>
+        <v>3.049987127262909</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8995951229100072</v>
+        <v>0.6665366377586324</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2005263926806151</v>
+        <v>0.06202895607282244</v>
       </c>
       <c r="D19">
-        <v>0.1452022736163485</v>
+        <v>0.04111732711260174</v>
       </c>
       <c r="E19">
-        <v>0.01091482163485935</v>
+        <v>0.0507797701317898</v>
       </c>
       <c r="F19">
-        <v>9.353570191357051</v>
+        <v>6.461397015152272</v>
       </c>
       <c r="G19">
-        <v>0.0007913999724651602</v>
+        <v>0.002618612063839673</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1667586412624047</v>
+        <v>0.1812423547329232</v>
       </c>
       <c r="K19">
-        <v>5.341871529958837</v>
+        <v>3.040636095510024</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8910330916158173</v>
+        <v>0.6652296291421607</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2097487329169496</v>
+        <v>0.06419494260300951</v>
       </c>
       <c r="D20">
-        <v>0.1518319058320117</v>
+        <v>0.0426374864446899</v>
       </c>
       <c r="E20">
-        <v>0.01085445510021188</v>
+        <v>0.05063609523311818</v>
       </c>
       <c r="F20">
-        <v>9.693990742738663</v>
+        <v>6.536626303050099</v>
       </c>
       <c r="G20">
-        <v>0.0007862962618624616</v>
+        <v>0.002616079072001187</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.171527117161645</v>
+        <v>0.1821834893644905</v>
       </c>
       <c r="K20">
-        <v>5.583498785979884</v>
+        <v>3.082896349928205</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9298304496844452</v>
+        <v>0.6711493179026817</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2417640567337997</v>
+        <v>0.07150751211430872</v>
       </c>
       <c r="D21">
-        <v>0.1750002660712369</v>
+        <v>0.04775499474821743</v>
       </c>
       <c r="E21">
-        <v>0.01067297450954996</v>
+        <v>0.05017546659144223</v>
       </c>
       <c r="F21">
-        <v>10.88187085125679</v>
+        <v>6.791885629493322</v>
       </c>
       <c r="G21">
-        <v>0.0007690696264452773</v>
+        <v>0.002607823879368629</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1882103214658386</v>
+        <v>0.1854043142224668</v>
       </c>
       <c r="K21">
-        <v>6.427066610746351</v>
+        <v>3.228046982088813</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.065415747813148</v>
+        <v>0.6917064300765929</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2636146538012838</v>
+        <v>0.07631402824067379</v>
       </c>
       <c r="D22">
-        <v>0.1909516723523836</v>
+        <v>0.05110844679840909</v>
       </c>
       <c r="E22">
-        <v>0.01057057959868235</v>
+        <v>0.04989081503717685</v>
       </c>
       <c r="F22">
-        <v>11.69760807216909</v>
+        <v>6.960626487776153</v>
       </c>
       <c r="G22">
-        <v>0.0007576949285294415</v>
+        <v>0.002602617789063311</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1997003851476364</v>
+        <v>0.1875537885411163</v>
       </c>
       <c r="K22">
-        <v>7.006805703198779</v>
+        <v>3.325292007269809</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.158689274601926</v>
+        <v>0.7056427207974281</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2518564030809074</v>
+        <v>0.07374612614910347</v>
       </c>
       <c r="D23">
-        <v>0.1823537697021749</v>
+        <v>0.04931774312640869</v>
       </c>
       <c r="E23">
-        <v>0.0106237245017935</v>
+        <v>0.05004124349818184</v>
       </c>
       <c r="F23">
-        <v>11.2581649048937</v>
+        <v>6.870387841544471</v>
       </c>
       <c r="G23">
-        <v>0.0007637805345873487</v>
+        <v>0.002605379142502223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1935075825289587</v>
+        <v>0.1864024585318163</v>
       </c>
       <c r="K23">
-        <v>6.694446327518278</v>
+        <v>3.273171103265554</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.108426484067515</v>
+        <v>0.6981585975112949</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2092387770463375</v>
+        <v>0.0640758675802573</v>
       </c>
       <c r="D24">
-        <v>0.1514648028253873</v>
+        <v>0.04255397261697169</v>
       </c>
       <c r="E24">
-        <v>0.01085769055348518</v>
+        <v>0.05064390184162715</v>
       </c>
       <c r="F24">
-        <v>9.675145384302226</v>
+        <v>6.532485797698882</v>
       </c>
       <c r="G24">
-        <v>0.0007865766991607053</v>
+        <v>0.002616217208286112</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1712629790556406</v>
+        <v>0.1821315875219867</v>
       </c>
       <c r="K24">
-        <v>5.570121241129868</v>
+        <v>3.080563783448099</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9276819378858931</v>
+        <v>0.6708217330261874</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.166285133238091</v>
+        <v>0.05375494986523677</v>
       </c>
       <c r="D25">
-        <v>0.1207568636776841</v>
+        <v>0.03528698118051921</v>
       </c>
       <c r="E25">
-        <v>0.01117781870793255</v>
+        <v>0.0513648498383823</v>
       </c>
       <c r="F25">
-        <v>8.097408684878218</v>
+        <v>6.175889031960992</v>
       </c>
       <c r="G25">
-        <v>0.000811013620008805</v>
+        <v>0.002628727309549354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1492231108981485</v>
+        <v>0.1777112110231229</v>
       </c>
       <c r="K25">
-        <v>4.450644180054212</v>
+        <v>2.882871989339719</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7481394018043801</v>
+        <v>0.6434641864491724</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04624057031806217</v>
+        <v>0.1364105090730448</v>
       </c>
       <c r="D2">
-        <v>0.02994977361687745</v>
+        <v>0.09964029639377259</v>
       </c>
       <c r="E2">
-        <v>0.05195727515087745</v>
+        <v>0.01147022273005804</v>
       </c>
       <c r="F2">
-        <v>5.919682466129302</v>
+        <v>7.012992006940948</v>
       </c>
       <c r="G2">
-        <v>0.002638653089036547</v>
+        <v>0.0008291791579755348</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1746110942662824</v>
+        <v>0.1341822832604223</v>
       </c>
       <c r="K2">
-        <v>2.745765109674494</v>
+        <v>3.681693663977455</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6251240003196585</v>
+        <v>0.6252160121263302</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04119625488371526</v>
+        <v>0.1169315076113548</v>
       </c>
       <c r="D3">
-        <v>0.02633550175126942</v>
+        <v>0.08597185037517363</v>
       </c>
       <c r="E3">
-        <v>0.05239751334947673</v>
+        <v>0.01170317398593212</v>
       </c>
       <c r="F3">
-        <v>5.749805215673234</v>
+        <v>6.312975828069256</v>
       </c>
       <c r="G3">
-        <v>0.002645830604285175</v>
+        <v>0.0008417155992337037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1726037611906648</v>
+        <v>0.1245381138708836</v>
       </c>
       <c r="K3">
-        <v>2.658023149878829</v>
+        <v>3.185534992373107</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6138062162812545</v>
+        <v>0.546164707097887</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03812136832809188</v>
+        <v>0.1052615940064214</v>
       </c>
       <c r="D4">
-        <v>0.02411591075728836</v>
+        <v>0.07781806591525964</v>
       </c>
       <c r="E4">
-        <v>0.05268704183666761</v>
+        <v>0.01186322248116012</v>
       </c>
       <c r="F4">
-        <v>5.64728751289104</v>
+        <v>5.8967732543924</v>
       </c>
       <c r="G4">
-        <v>0.002650461556865611</v>
+        <v>0.0008495562524134185</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1714165689759994</v>
+        <v>0.1188354624430374</v>
       </c>
       <c r="K4">
-        <v>2.606673675935326</v>
+        <v>2.890641980391592</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6074014241804875</v>
+        <v>0.4993141307885622</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03687375741574783</v>
+        <v>0.1005675503613332</v>
       </c>
       <c r="D5">
-        <v>0.02321105574269211</v>
+        <v>0.07454519556277717</v>
       </c>
       <c r="E5">
-        <v>0.05280987615164756</v>
+        <v>0.01193270553010128</v>
       </c>
       <c r="F5">
-        <v>5.605951557023104</v>
+        <v>5.730120851709074</v>
       </c>
       <c r="G5">
-        <v>0.002652405242147841</v>
+        <v>0.0008527915613226438</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1709440589397389</v>
+        <v>0.1165598705291657</v>
       </c>
       <c r="K5">
-        <v>2.586379571485281</v>
+        <v>2.772591265478184</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6049278463457384</v>
+        <v>0.4805932235859416</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03666691510946407</v>
+        <v>0.0997915144707946</v>
       </c>
       <c r="D6">
-        <v>0.02306077662207429</v>
+        <v>0.07400447412876332</v>
       </c>
       <c r="E6">
-        <v>0.05283056604085568</v>
+        <v>0.01194450013347748</v>
       </c>
       <c r="F6">
-        <v>5.599114127006828</v>
+        <v>5.702614011387908</v>
       </c>
       <c r="G6">
-        <v>0.002652731410805358</v>
+        <v>0.0008533313216239584</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1708662769792397</v>
+        <v>0.1161847429856948</v>
       </c>
       <c r="K6">
-        <v>2.58304777300998</v>
+        <v>2.75310816116837</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.60452533740132</v>
+        <v>0.4775056060081013</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03810452087037675</v>
+        <v>0.1051980535123676</v>
       </c>
       <c r="D7">
-        <v>0.02410370932729222</v>
+        <v>0.07777373754218075</v>
       </c>
       <c r="E7">
-        <v>0.05268867876790306</v>
+        <v>0.01186414231646893</v>
       </c>
       <c r="F7">
-        <v>5.646728268175252</v>
+        <v>5.894514344758846</v>
       </c>
       <c r="G7">
-        <v>0.002650487540910519</v>
+        <v>0.0008495997171365536</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1714101510173407</v>
+        <v>0.1188045859016782</v>
       </c>
       <c r="K7">
-        <v>2.606397431368009</v>
+        <v>2.889041730533677</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6073675128474179</v>
+        <v>0.4990602173598049</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04449653744960358</v>
+        <v>0.1296265805301005</v>
       </c>
       <c r="D8">
-        <v>0.02870350698267998</v>
+        <v>0.09487137728682171</v>
       </c>
       <c r="E8">
-        <v>0.0521050896436952</v>
+        <v>0.01154700149584498</v>
       </c>
       <c r="F8">
-        <v>5.860732472743308</v>
+        <v>6.768501958121988</v>
       </c>
       <c r="G8">
-        <v>0.002641081555984703</v>
+        <v>0.0008334746544329791</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1739094894639521</v>
+        <v>0.1308072194296628</v>
       </c>
       <c r="K8">
-        <v>2.714985516521892</v>
+        <v>3.508382088502231</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.621108355301871</v>
+        <v>0.5975748422602862</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0572177485782106</v>
+        <v>0.1804327308106366</v>
       </c>
       <c r="D9">
-        <v>0.03773204097630867</v>
+        <v>0.1308250232192307</v>
       </c>
       <c r="E9">
-        <v>0.05111247177805556</v>
+        <v>0.01106108506605796</v>
       </c>
       <c r="F9">
-        <v>6.294994184937138</v>
+        <v>8.614858953573702</v>
       </c>
       <c r="G9">
-        <v>0.002624402903308271</v>
+        <v>0.0008027729540783998</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1791758314071288</v>
+        <v>0.1564339654058884</v>
       </c>
       <c r="K9">
-        <v>2.948138547011467</v>
+        <v>4.817698985790457</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6523977063102535</v>
+        <v>0.8069457955254009</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0666914859539105</v>
+        <v>0.2205220055085988</v>
       </c>
       <c r="D10">
-        <v>0.04438701796549083</v>
+        <v>0.1596013870308468</v>
       </c>
       <c r="E10">
-        <v>0.05047477685466983</v>
+        <v>0.01078876539237505</v>
       </c>
       <c r="F10">
-        <v>6.623559711992868</v>
+        <v>10.09268794976083</v>
       </c>
       <c r="G10">
-        <v>0.002613211465963321</v>
+        <v>0.0007804181528838763</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1832758577535571</v>
+        <v>0.1771194401442457</v>
       </c>
       <c r="K10">
-        <v>3.132040005815838</v>
+        <v>5.866554882018704</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6780726349695385</v>
+        <v>0.9753040229073733</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07103209858728121</v>
+        <v>0.2396390822807177</v>
       </c>
       <c r="D11">
-        <v>0.04742290040714181</v>
+        <v>0.1734550390978455</v>
       </c>
       <c r="E11">
-        <v>0.05020435750609664</v>
+        <v>0.01068379607569447</v>
       </c>
       <c r="F11">
-        <v>6.775234691356161</v>
+        <v>10.80274865253551</v>
       </c>
       <c r="G11">
-        <v>0.002608347756007652</v>
+        <v>0.0007701913644807846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1851930314209795</v>
+        <v>0.1870971830659229</v>
       </c>
       <c r="K11">
-        <v>3.218503171247562</v>
+        <v>6.370855779492615</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6903452258564258</v>
+        <v>1.056375536911546</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07268046512244553</v>
+        <v>0.2470341373038991</v>
       </c>
       <c r="D12">
-        <v>0.0485740216352184</v>
+        <v>0.178837146335411</v>
       </c>
       <c r="E12">
-        <v>0.05010476964102839</v>
+        <v>0.01064682208761258</v>
       </c>
       <c r="F12">
-        <v>6.832998295473089</v>
+        <v>11.07826183579658</v>
       </c>
       <c r="G12">
-        <v>0.002606538444273962</v>
+        <v>0.0007662999208220358</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.185926643378501</v>
+        <v>0.1909743319059984</v>
       </c>
       <c r="K12">
-        <v>3.251652946993545</v>
+        <v>6.566604035028377</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6950784935652834</v>
+        <v>1.087859984658728</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07232524863941592</v>
+        <v>0.2454340160572315</v>
       </c>
       <c r="D13">
-        <v>0.04832603600850405</v>
+        <v>0.1776714827725669</v>
       </c>
       <c r="E13">
-        <v>0.05012609274434965</v>
+        <v>0.01065466063213627</v>
       </c>
       <c r="F13">
-        <v>6.820543140314157</v>
+        <v>11.01860856038905</v>
       </c>
       <c r="G13">
-        <v>0.002606926671184656</v>
+        <v>0.0007671390399974846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1857683058448387</v>
+        <v>0.1901346124344769</v>
       </c>
       <c r="K13">
-        <v>3.244495326086394</v>
+        <v>6.524217554651386</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6940552685987029</v>
+        <v>1.081041806551561</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07116761581814046</v>
+        <v>0.2402441650299778</v>
       </c>
       <c r="D14">
-        <v>0.04751757221850994</v>
+        <v>0.173894931070933</v>
       </c>
       <c r="E14">
-        <v>0.05019610803759544</v>
+        <v>0.01068069821295214</v>
       </c>
       <c r="F14">
-        <v>6.779980315034379</v>
+        <v>10.82527469115809</v>
       </c>
       <c r="G14">
-        <v>0.002608198253365055</v>
+        <v>0.000769871657493313</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1852532326215552</v>
+        <v>0.1874140673239069</v>
       </c>
       <c r="K14">
-        <v>3.221222218224511</v>
+        <v>6.386858613134109</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.690732909237326</v>
+        <v>1.058949152407038</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07045914711753198</v>
+        <v>0.2370864988077557</v>
       </c>
       <c r="D15">
-        <v>0.04702256819587092</v>
+        <v>0.1716002760887392</v>
       </c>
       <c r="E15">
-        <v>0.05023936047003641</v>
+        <v>0.0106970103140327</v>
       </c>
       <c r="F15">
-        <v>6.755177372187006</v>
+        <v>10.70775510520224</v>
       </c>
       <c r="G15">
-        <v>0.002608981355954538</v>
+        <v>0.0007715426690188676</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1849387317865094</v>
+        <v>0.185761090861952</v>
       </c>
       <c r="K15">
-        <v>3.207020048033883</v>
+        <v>6.303374007317814</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6887090748680578</v>
+        <v>1.045523575179494</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06640845831644526</v>
+        <v>0.2192927381003784</v>
       </c>
       <c r="D16">
-        <v>0.04418881048266599</v>
+        <v>0.1587134980003242</v>
       </c>
       <c r="E16">
-        <v>0.05049284397711684</v>
+        <v>0.0107960104739</v>
       </c>
       <c r="F16">
-        <v>6.613692690115897</v>
+        <v>10.04714081784007</v>
       </c>
       <c r="G16">
-        <v>0.002613533876519437</v>
+        <v>0.0007810844907482274</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1831516248309057</v>
+        <v>0.1764801837401464</v>
       </c>
       <c r="K16">
-        <v>3.126446279941888</v>
+        <v>5.834214874238626</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6772825778381986</v>
+        <v>0.9701073177102586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06393157606544264</v>
+        <v>0.2086212943186894</v>
       </c>
       <c r="D17">
-        <v>0.04245276444557078</v>
+        <v>0.1510203747562286</v>
       </c>
       <c r="E17">
-        <v>0.05065337572334094</v>
+        <v>0.01086162394344381</v>
       </c>
       <c r="F17">
-        <v>6.527469191166006</v>
+        <v>9.65232971971372</v>
       </c>
       <c r="G17">
-        <v>0.002616384768297445</v>
+        <v>0.0007869165409997448</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1820687194114612</v>
+        <v>0.1709432173011365</v>
       </c>
       <c r="K17">
-        <v>3.077738675300509</v>
+        <v>5.553925545820505</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6704251047390599</v>
+        <v>0.9250808934095929</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06250983986187464</v>
+        <v>0.2025641558643656</v>
       </c>
       <c r="D18">
-        <v>0.04145502004102752</v>
+        <v>0.1466654668635528</v>
       </c>
       <c r="E18">
-        <v>0.05074756175648165</v>
+        <v>0.01090113902640333</v>
       </c>
       <c r="F18">
-        <v>6.478083019822748</v>
+        <v>9.428717527432894</v>
       </c>
       <c r="G18">
-        <v>0.002618045936662187</v>
+        <v>0.0007902663129806253</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1814507519292761</v>
+        <v>0.1678107394980799</v>
       </c>
       <c r="K18">
-        <v>3.049987127262909</v>
+        <v>5.395206223914329</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6665366377586324</v>
+        <v>0.899595122909993</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06202895607282244</v>
+        <v>0.2005263926806009</v>
       </c>
       <c r="D19">
-        <v>0.04111732711260174</v>
+        <v>0.1452022736161069</v>
       </c>
       <c r="E19">
-        <v>0.0507797701317898</v>
+        <v>0.01091482163490021</v>
       </c>
       <c r="F19">
-        <v>6.461397015152272</v>
+        <v>9.353570191357164</v>
       </c>
       <c r="G19">
-        <v>0.002618612063839673</v>
+        <v>0.0007913999723440019</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1812423547329232</v>
+        <v>0.1667586412623265</v>
       </c>
       <c r="K19">
-        <v>3.040636095510024</v>
+        <v>5.341871529958837</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6652296291421607</v>
+        <v>0.8910330916157889</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06419494260300951</v>
+        <v>0.2097487329164238</v>
       </c>
       <c r="D20">
-        <v>0.0426374864446899</v>
+        <v>0.1518319058317701</v>
       </c>
       <c r="E20">
-        <v>0.05063609523311818</v>
+        <v>0.01085445510037353</v>
       </c>
       <c r="F20">
-        <v>6.536626303050099</v>
+        <v>9.69399074273872</v>
       </c>
       <c r="G20">
-        <v>0.002616079072001187</v>
+        <v>0.0007862962618594173</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1821834893644905</v>
+        <v>0.1715271171617161</v>
       </c>
       <c r="K20">
-        <v>3.082896349928205</v>
+        <v>5.583498785979714</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6711493179026817</v>
+        <v>0.9298304496844736</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07150751211430872</v>
+        <v>0.2417640567334161</v>
       </c>
       <c r="D21">
-        <v>0.04775499474821743</v>
+        <v>0.1750002660714358</v>
       </c>
       <c r="E21">
-        <v>0.05017546659144223</v>
+        <v>0.01067297450954996</v>
       </c>
       <c r="F21">
-        <v>6.791885629493322</v>
+        <v>10.88187085125674</v>
       </c>
       <c r="G21">
-        <v>0.002607823879368629</v>
+        <v>0.0007690696264331887</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1854043142224668</v>
+        <v>0.1882103214657178</v>
       </c>
       <c r="K21">
-        <v>3.228046982088813</v>
+        <v>6.427066610746408</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6917064300765929</v>
+        <v>1.065415747813141</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07631402824067379</v>
+        <v>0.2636146538016675</v>
       </c>
       <c r="D22">
-        <v>0.05110844679840909</v>
+        <v>0.190951672352341</v>
       </c>
       <c r="E22">
-        <v>0.04989081503717685</v>
+        <v>0.01057057959860774</v>
       </c>
       <c r="F22">
-        <v>6.960626487776153</v>
+        <v>11.69760807216926</v>
       </c>
       <c r="G22">
-        <v>0.002602617789063311</v>
+        <v>0.0007576949285199586</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1875537885411163</v>
+        <v>0.1997003851477714</v>
       </c>
       <c r="K22">
-        <v>3.325292007269809</v>
+        <v>7.006805703198665</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7056427207974281</v>
+        <v>1.158689274601926</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07374612614910347</v>
+        <v>0.2518564030799268</v>
       </c>
       <c r="D23">
-        <v>0.04931774312640869</v>
+        <v>0.1823537697028712</v>
       </c>
       <c r="E23">
-        <v>0.05004124349818184</v>
+        <v>0.01062372450163096</v>
       </c>
       <c r="F23">
-        <v>6.870387841544471</v>
+        <v>11.2581649048937</v>
       </c>
       <c r="G23">
-        <v>0.002605379142502223</v>
+        <v>0.0007637805345803213</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1864024585318163</v>
+        <v>0.1935075825288024</v>
       </c>
       <c r="K23">
-        <v>3.273171103265554</v>
+        <v>6.694446327518506</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6981585975112949</v>
+        <v>1.108426484067429</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0640758675802573</v>
+        <v>0.2092387770463802</v>
       </c>
       <c r="D24">
-        <v>0.04255397261697169</v>
+        <v>0.1514648028256005</v>
       </c>
       <c r="E24">
-        <v>0.05064390184162715</v>
+        <v>0.01085769055349228</v>
       </c>
       <c r="F24">
-        <v>6.532485797698882</v>
+        <v>9.675145384302169</v>
       </c>
       <c r="G24">
-        <v>0.002616217208286112</v>
+        <v>0.0007865766989356848</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1821315875219867</v>
+        <v>0.1712629790557969</v>
       </c>
       <c r="K24">
-        <v>3.080563783448099</v>
+        <v>5.570121241129868</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6708217330261874</v>
+        <v>0.9276819378858789</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05375494986523677</v>
+        <v>0.1662851332373094</v>
       </c>
       <c r="D25">
-        <v>0.03528698118051921</v>
+        <v>0.120756863677812</v>
       </c>
       <c r="E25">
-        <v>0.0513648498383823</v>
+        <v>0.01117781870792367</v>
       </c>
       <c r="F25">
-        <v>6.175889031960992</v>
+        <v>8.097408684878104</v>
       </c>
       <c r="G25">
-        <v>0.002628727309549354</v>
+        <v>0.0008110136199159447</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1777112110231229</v>
+        <v>0.1492231108980491</v>
       </c>
       <c r="K25">
-        <v>2.882871989339719</v>
+        <v>4.450644180054098</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6434641864491724</v>
+        <v>0.7481394018043801</v>
       </c>
       <c r="N25">
         <v>0</v>
